--- a/resource/alcohol/16.05.16/5/measurement-2.xlsx
+++ b/resource/alcohol/16.05.16/5/measurement-2.xlsx
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +83,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,15 +165,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,9 +214,6 @@
         <v>0</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N1" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -252,9 +251,6 @@
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -288,9 +284,6 @@
         <v>-1</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -326,9 +319,6 @@
         <v>-1</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -364,9 +354,6 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -402,9 +389,6 @@
         <v>3</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -440,9 +424,6 @@
         <v>8</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,9 +459,6 @@
         <v>9</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N8" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -512,9 +490,6 @@
         <v>10</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="N9" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -546,9 +521,6 @@
         <v>11</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="N10" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -580,9 +552,6 @@
         <v>11</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -614,9 +583,6 @@
         <v>11</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -648,9 +614,6 @@
         <v>11</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="N13" s="2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -682,9 +645,6 @@
         <v>11</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="N14" s="2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -716,9 +676,6 @@
         <v>11</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="N15" s="2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -750,9 +707,6 @@
         <v>11</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="N16" s="2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -784,9 +738,6 @@
         <v>12</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="N17" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -818,9 +769,6 @@
         <v>12</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N18" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -852,9 +800,6 @@
         <v>12</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N19" s="2" t="n">
         <v>17</v>
       </c>
     </row>
@@ -886,9 +831,6 @@
         <v>12</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="N20" s="2" t="n">
         <v>17</v>
       </c>
     </row>
@@ -920,9 +862,6 @@
         <v>12</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="N21" s="2" t="n">
         <v>18</v>
       </c>
     </row>
@@ -954,9 +893,6 @@
         <v>12</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="N22" s="2" t="n">
         <v>19</v>
       </c>
     </row>
@@ -988,9 +924,6 @@
         <v>13</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="N23" s="2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1022,9 +955,6 @@
         <v>13</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="N24" s="2" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1056,9 +986,6 @@
         <v>12</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="N25" s="2" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1090,9 +1017,6 @@
         <v>13</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="N26" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1124,9 +1048,6 @@
         <v>12</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N27" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1158,9 +1079,6 @@
         <v>13</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N28" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1192,9 +1110,6 @@
         <v>13</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N29" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1226,9 +1141,6 @@
         <v>12</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N30" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1260,9 +1172,6 @@
         <v>12</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N31" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1294,9 +1203,6 @@
         <v>13</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N32" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1328,9 +1234,6 @@
         <v>13</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N33" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1362,9 +1265,6 @@
         <v>13</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N34" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1396,9 +1296,6 @@
         <v>14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N35" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1430,9 +1327,6 @@
         <v>13</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N36" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1464,9 +1358,6 @@
         <v>13</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N37" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1498,9 +1389,6 @@
         <v>13</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="N38" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1532,9 +1420,6 @@
         <v>14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N39" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1566,9 +1451,6 @@
         <v>13</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N40" s="2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1600,9 +1482,6 @@
         <v>14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N41" s="2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1634,9 +1513,6 @@
         <v>13</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N42" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1668,9 +1544,6 @@
         <v>13</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N43" s="2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1702,9 +1575,6 @@
         <v>14</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N44" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1736,9 +1606,6 @@
         <v>14</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N45" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1770,9 +1637,6 @@
         <v>13</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N46" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1804,9 +1668,6 @@
         <v>13</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N47" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1838,9 +1699,6 @@
         <v>14</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N48" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1872,9 +1730,6 @@
         <v>13</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N49" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1906,9 +1761,6 @@
         <v>13</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N50" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1940,9 +1792,6 @@
         <v>14</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N51" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1974,9 +1823,6 @@
         <v>14</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N52" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2008,9 +1854,6 @@
         <v>14</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N53" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2042,9 +1885,6 @@
         <v>14</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N54" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2076,9 +1916,6 @@
         <v>14</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N55" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2110,9 +1947,6 @@
         <v>14</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N56" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2144,9 +1978,6 @@
         <v>14</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N57" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2178,9 +2009,6 @@
         <v>14</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N58" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2212,9 +2040,6 @@
         <v>14</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N59" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2246,9 +2071,6 @@
         <v>14</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N60" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2280,9 +2102,6 @@
         <v>15</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N61" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2314,9 +2133,6 @@
         <v>14</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N62" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2348,9 +2164,6 @@
         <v>14</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N63" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2382,9 +2195,6 @@
         <v>15</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N64" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2416,9 +2226,6 @@
         <v>15</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N65" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2450,9 +2257,6 @@
         <v>14</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N66" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2484,9 +2288,6 @@
         <v>14</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N67" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2518,9 +2319,6 @@
         <v>14</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N68" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2552,9 +2350,6 @@
         <v>14</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N69" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2586,9 +2381,6 @@
         <v>14</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N70" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2620,9 +2412,6 @@
         <v>14</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N71" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2654,9 +2443,6 @@
         <v>14</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N72" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2688,9 +2474,6 @@
         <v>15</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N73" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2722,9 +2505,6 @@
         <v>15</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N74" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2756,9 +2536,6 @@
         <v>15</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N75" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2790,9 +2567,6 @@
         <v>14</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N76" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2824,9 +2598,6 @@
         <v>15</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N77" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2858,9 +2629,6 @@
         <v>15</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N78" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2892,9 +2660,6 @@
         <v>15</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N79" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2926,9 +2691,6 @@
         <v>15</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N80" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2960,9 +2722,6 @@
         <v>15</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N81" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2994,9 +2753,6 @@
         <v>15</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N82" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3028,9 +2784,6 @@
         <v>15</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N83" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3062,9 +2815,6 @@
         <v>15</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N84" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3096,9 +2846,6 @@
         <v>16</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N85" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3130,9 +2877,6 @@
         <v>15</v>
       </c>
       <c r="M86" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N86" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3164,9 +2908,6 @@
         <v>15</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N87" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3198,9 +2939,6 @@
         <v>16</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N88" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3232,9 +2970,6 @@
         <v>15</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N89" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3266,9 +3001,6 @@
         <v>15</v>
       </c>
       <c r="M90" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N90" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3300,9 +3032,6 @@
         <v>16</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N91" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3334,9 +3063,6 @@
         <v>16</v>
       </c>
       <c r="M92" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N92" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3368,9 +3094,6 @@
         <v>15</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N93" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3402,9 +3125,6 @@
         <v>15</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N94" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3436,9 +3156,6 @@
         <v>15</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N95" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3470,9 +3187,6 @@
         <v>15</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N96" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3504,9 +3218,6 @@
         <v>16</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N97" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3538,9 +3249,6 @@
         <v>16</v>
       </c>
       <c r="M98" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N98" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3572,9 +3280,6 @@
         <v>16</v>
       </c>
       <c r="M99" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N99" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3606,9 +3311,6 @@
         <v>15</v>
       </c>
       <c r="M100" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N100" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3640,9 +3342,6 @@
         <v>15</v>
       </c>
       <c r="M101" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N101" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3674,9 +3373,6 @@
         <v>16</v>
       </c>
       <c r="M102" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N102" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3708,9 +3404,6 @@
         <v>16</v>
       </c>
       <c r="M103" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N103" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3742,9 +3435,6 @@
         <v>16</v>
       </c>
       <c r="M104" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N104" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3776,9 +3466,6 @@
         <v>16</v>
       </c>
       <c r="M105" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N105" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3810,9 +3497,6 @@
         <v>16</v>
       </c>
       <c r="M106" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N106" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3844,9 +3528,6 @@
         <v>16</v>
       </c>
       <c r="M107" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N107" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3878,9 +3559,6 @@
         <v>16</v>
       </c>
       <c r="M108" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N108" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3912,9 +3590,6 @@
         <v>16</v>
       </c>
       <c r="M109" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N109" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3946,9 +3621,6 @@
         <v>16</v>
       </c>
       <c r="M110" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N110" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3980,9 +3652,6 @@
         <v>16</v>
       </c>
       <c r="M111" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N111" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4014,9 +3683,6 @@
         <v>16</v>
       </c>
       <c r="M112" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N112" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4048,9 +3714,6 @@
         <v>16</v>
       </c>
       <c r="M113" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N113" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4082,9 +3745,6 @@
         <v>16</v>
       </c>
       <c r="M114" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N114" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4116,9 +3776,6 @@
         <v>16</v>
       </c>
       <c r="M115" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N115" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4150,9 +3807,6 @@
         <v>16</v>
       </c>
       <c r="M116" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N116" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4184,9 +3838,6 @@
         <v>16</v>
       </c>
       <c r="M117" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N117" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4218,9 +3869,6 @@
         <v>16</v>
       </c>
       <c r="M118" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N118" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4252,9 +3900,6 @@
         <v>16</v>
       </c>
       <c r="M119" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N119" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4276,21 +3921,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4305,21 +3949,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
